--- a/data/TopOnePercent/Hebei Normal University.xlsx
+++ b/data/TopOnePercent/Hebei Normal University.xlsx
@@ -184,13 +184,13 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>909.0</v>
+        <v>854.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>10449.0</v>
+        <v>9839.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>6.0</v>
@@ -206,13 +206,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>258.0</v>
+        <v>248.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>3414.0</v>
+        <v>2933.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>13.23</v>
+        <v>11.83</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.0</v>
@@ -228,13 +228,13 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>3589.0</v>
+        <v>3427.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>35305.0</v>
+        <v>32802.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>9.84</v>
+        <v>9.57</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>16.0</v>
@@ -243,7 +243,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
